--- a/INTLINE/data/193/ABS/87520033.xlsx
+++ b/INTLINE/data/193/ABS/87520033.xlsx
@@ -12,62 +12,62 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A83791248X">Data1!$H$1:$H$10,Data1!$H$51:$H$275</definedName>
-    <definedName name="A83791248X_Data">Data1!$H$51:$H$275</definedName>
-    <definedName name="A83791248X_Latest">Data1!$H$275</definedName>
-    <definedName name="A83791464T">Data1!$I$1:$I$10,Data1!$I$11:$I$275</definedName>
-    <definedName name="A83791464T_Data">Data1!$I$11:$I$275</definedName>
-    <definedName name="A83791464T_Latest">Data1!$I$275</definedName>
-    <definedName name="A83791680K">Data1!$B$1:$B$10,Data1!$B$11:$B$275</definedName>
-    <definedName name="A83791680K_Data">Data1!$B$11:$B$275</definedName>
-    <definedName name="A83791680K_Latest">Data1!$B$275</definedName>
-    <definedName name="A83791896W">Data1!$C$1:$C$10,Data1!$C$11:$C$275</definedName>
-    <definedName name="A83791896W_Data">Data1!$C$11:$C$275</definedName>
-    <definedName name="A83791896W_Latest">Data1!$C$275</definedName>
-    <definedName name="A83792112F">Data1!$N$1:$N$10,Data1!$N$51:$N$275</definedName>
-    <definedName name="A83792112F_Data">Data1!$N$51:$N$275</definedName>
-    <definedName name="A83792112F_Latest">Data1!$N$275</definedName>
-    <definedName name="A83792328T">Data1!$O$1:$O$10,Data1!$O$11:$O$275</definedName>
-    <definedName name="A83792328T_Data">Data1!$O$11:$O$275</definedName>
-    <definedName name="A83792328T_Latest">Data1!$O$275</definedName>
-    <definedName name="A83793840W">Data1!$K$1:$K$10,Data1!$K$67:$K$275</definedName>
-    <definedName name="A83793840W_Data">Data1!$K$67:$K$275</definedName>
-    <definedName name="A83793840W_Latest">Data1!$K$275</definedName>
-    <definedName name="A83794056K">Data1!$L$1:$L$10,Data1!$L$67:$L$275</definedName>
-    <definedName name="A83794056K_Data">Data1!$L$67:$L$275</definedName>
-    <definedName name="A83794056K_Latest">Data1!$L$275</definedName>
-    <definedName name="A83794272C">Data1!$E$1:$E$10,Data1!$E$11:$E$275</definedName>
-    <definedName name="A83794272C_Data">Data1!$E$11:$E$275</definedName>
-    <definedName name="A83794272C_Latest">Data1!$E$275</definedName>
-    <definedName name="A83794488R">Data1!$F$1:$F$10,Data1!$F$11:$F$275</definedName>
-    <definedName name="A83794488R_Data">Data1!$F$11:$F$275</definedName>
-    <definedName name="A83794488R_Latest">Data1!$F$275</definedName>
-    <definedName name="A83794704W">Data1!$Q$1:$Q$10,Data1!$Q$67:$Q$275</definedName>
-    <definedName name="A83794704W_Data">Data1!$Q$67:$Q$275</definedName>
-    <definedName name="A83794704W_Latest">Data1!$Q$275</definedName>
-    <definedName name="A83794920R">Data1!$R$1:$R$10,Data1!$R$67:$R$275</definedName>
-    <definedName name="A83794920R_Data">Data1!$R$67:$R$275</definedName>
-    <definedName name="A83794920R_Latest">Data1!$R$275</definedName>
-    <definedName name="A83798952F">Data1!$J$1:$J$10,Data1!$J$127:$J$275</definedName>
-    <definedName name="A83798952F_Data">Data1!$J$127:$J$275</definedName>
-    <definedName name="A83798952F_Latest">Data1!$J$275</definedName>
-    <definedName name="A83799384L">Data1!$D$1:$D$10,Data1!$D$127:$D$275</definedName>
-    <definedName name="A83799384L_Data">Data1!$D$127:$D$275</definedName>
-    <definedName name="A83799384L_Latest">Data1!$D$275</definedName>
-    <definedName name="A83799816F">Data1!$P$1:$P$10,Data1!$P$127:$P$275</definedName>
-    <definedName name="A83799816F_Data">Data1!$P$127:$P$275</definedName>
-    <definedName name="A83799816F_Latest">Data1!$P$275</definedName>
-    <definedName name="A83801544L">Data1!$M$1:$M$10,Data1!$M$127:$M$275</definedName>
-    <definedName name="A83801544L_Data">Data1!$M$127:$M$275</definedName>
-    <definedName name="A83801544L_Latest">Data1!$M$275</definedName>
-    <definedName name="A83801976T">Data1!$G$1:$G$10,Data1!$G$111:$G$275</definedName>
-    <definedName name="A83801976T_Data">Data1!$G$111:$G$275</definedName>
-    <definedName name="A83801976T_Latest">Data1!$G$275</definedName>
-    <definedName name="A83802408L">Data1!$S$1:$S$10,Data1!$S$127:$S$275</definedName>
-    <definedName name="A83802408L_Data">Data1!$S$127:$S$275</definedName>
-    <definedName name="A83802408L_Latest">Data1!$S$275</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$275</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$275</definedName>
+    <definedName name="A83791248X">Data1!$H$1:$H$10,Data1!$H$51:$H$276</definedName>
+    <definedName name="A83791248X_Data">Data1!$H$51:$H$276</definedName>
+    <definedName name="A83791248X_Latest">Data1!$H$276</definedName>
+    <definedName name="A83791464T">Data1!$I$1:$I$10,Data1!$I$11:$I$276</definedName>
+    <definedName name="A83791464T_Data">Data1!$I$11:$I$276</definedName>
+    <definedName name="A83791464T_Latest">Data1!$I$276</definedName>
+    <definedName name="A83791680K">Data1!$B$1:$B$10,Data1!$B$11:$B$276</definedName>
+    <definedName name="A83791680K_Data">Data1!$B$11:$B$276</definedName>
+    <definedName name="A83791680K_Latest">Data1!$B$276</definedName>
+    <definedName name="A83791896W">Data1!$C$1:$C$10,Data1!$C$11:$C$276</definedName>
+    <definedName name="A83791896W_Data">Data1!$C$11:$C$276</definedName>
+    <definedName name="A83791896W_Latest">Data1!$C$276</definedName>
+    <definedName name="A83792112F">Data1!$N$1:$N$10,Data1!$N$51:$N$276</definedName>
+    <definedName name="A83792112F_Data">Data1!$N$51:$N$276</definedName>
+    <definedName name="A83792112F_Latest">Data1!$N$276</definedName>
+    <definedName name="A83792328T">Data1!$O$1:$O$10,Data1!$O$11:$O$276</definedName>
+    <definedName name="A83792328T_Data">Data1!$O$11:$O$276</definedName>
+    <definedName name="A83792328T_Latest">Data1!$O$276</definedName>
+    <definedName name="A83793840W">Data1!$K$1:$K$10,Data1!$K$67:$K$276</definedName>
+    <definedName name="A83793840W_Data">Data1!$K$67:$K$276</definedName>
+    <definedName name="A83793840W_Latest">Data1!$K$276</definedName>
+    <definedName name="A83794056K">Data1!$L$1:$L$10,Data1!$L$67:$L$276</definedName>
+    <definedName name="A83794056K_Data">Data1!$L$67:$L$276</definedName>
+    <definedName name="A83794056K_Latest">Data1!$L$276</definedName>
+    <definedName name="A83794272C">Data1!$E$1:$E$10,Data1!$E$11:$E$276</definedName>
+    <definedName name="A83794272C_Data">Data1!$E$11:$E$276</definedName>
+    <definedName name="A83794272C_Latest">Data1!$E$276</definedName>
+    <definedName name="A83794488R">Data1!$F$1:$F$10,Data1!$F$11:$F$276</definedName>
+    <definedName name="A83794488R_Data">Data1!$F$11:$F$276</definedName>
+    <definedName name="A83794488R_Latest">Data1!$F$276</definedName>
+    <definedName name="A83794704W">Data1!$Q$1:$Q$10,Data1!$Q$67:$Q$276</definedName>
+    <definedName name="A83794704W_Data">Data1!$Q$67:$Q$276</definedName>
+    <definedName name="A83794704W_Latest">Data1!$Q$276</definedName>
+    <definedName name="A83794920R">Data1!$R$1:$R$10,Data1!$R$67:$R$276</definedName>
+    <definedName name="A83794920R_Data">Data1!$R$67:$R$276</definedName>
+    <definedName name="A83794920R_Latest">Data1!$R$276</definedName>
+    <definedName name="A83798952F">Data1!$J$1:$J$10,Data1!$J$127:$J$276</definedName>
+    <definedName name="A83798952F_Data">Data1!$J$127:$J$276</definedName>
+    <definedName name="A83798952F_Latest">Data1!$J$276</definedName>
+    <definedName name="A83799384L">Data1!$D$1:$D$10,Data1!$D$127:$D$276</definedName>
+    <definedName name="A83799384L_Data">Data1!$D$127:$D$276</definedName>
+    <definedName name="A83799384L_Latest">Data1!$D$276</definedName>
+    <definedName name="A83799816F">Data1!$P$1:$P$10,Data1!$P$127:$P$276</definedName>
+    <definedName name="A83799816F_Data">Data1!$P$127:$P$276</definedName>
+    <definedName name="A83799816F_Latest">Data1!$P$276</definedName>
+    <definedName name="A83801544L">Data1!$M$1:$M$10,Data1!$M$127:$M$276</definedName>
+    <definedName name="A83801544L_Data">Data1!$M$127:$M$276</definedName>
+    <definedName name="A83801544L_Latest">Data1!$M$276</definedName>
+    <definedName name="A83801976T">Data1!$G$1:$G$10,Data1!$G$111:$G$276</definedName>
+    <definedName name="A83801976T_Data">Data1!$G$111:$G$276</definedName>
+    <definedName name="A83801976T_Latest">Data1!$G$276</definedName>
+    <definedName name="A83802408L">Data1!$S$1:$S$10,Data1!$S$127:$S$276</definedName>
+    <definedName name="A83802408L_Data">Data1!$S$127:$S$276</definedName>
+    <definedName name="A83802408L_Latest">Data1!$S$276</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$276</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$276</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -16251,6 +16251,84 @@
       </text>
     </comment>
     <comment ref="S275" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N276" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O276" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P276" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q276" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R276" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S276" authorId="0">
       <text>
         <r>
           <rPr>
@@ -16414,7 +16492,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2021</t>
+    <t>© Commonwealth of Australia  2022</t>
   </si>
 </sst>
 </file>
@@ -17120,10 +17198,10 @@
         <v>20333</v>
       </c>
       <c r="G12" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H12" s="10">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>15</v>
@@ -17152,10 +17230,10 @@
         <v>20333</v>
       </c>
       <c r="G13" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H13" s="10">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>15</v>
@@ -17184,10 +17262,10 @@
         <v>30926</v>
       </c>
       <c r="G14" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H14" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>15</v>
@@ -17216,10 +17294,10 @@
         <v>20333</v>
       </c>
       <c r="G15" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H15" s="10">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>15</v>
@@ -17248,10 +17326,10 @@
         <v>20333</v>
       </c>
       <c r="G16" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H16" s="10">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
@@ -17280,10 +17358,10 @@
         <v>29465</v>
       </c>
       <c r="G17" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H17" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>15</v>
@@ -17312,10 +17390,10 @@
         <v>23986</v>
       </c>
       <c r="G18" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H18" s="10">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>15</v>
@@ -17344,10 +17422,10 @@
         <v>20333</v>
       </c>
       <c r="G19" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H19" s="10">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>15</v>
@@ -17376,10 +17454,10 @@
         <v>30926</v>
       </c>
       <c r="G20" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H20" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>15</v>
@@ -17408,10 +17486,10 @@
         <v>25447</v>
       </c>
       <c r="G21" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H21" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>15</v>
@@ -17440,10 +17518,10 @@
         <v>25447</v>
       </c>
       <c r="G22" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H22" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>15</v>
@@ -17472,10 +17550,10 @@
         <v>30926</v>
       </c>
       <c r="G23" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H23" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>15</v>
@@ -17504,10 +17582,10 @@
         <v>23986</v>
       </c>
       <c r="G24" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H24" s="10">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>15</v>
@@ -17536,10 +17614,10 @@
         <v>20333</v>
       </c>
       <c r="G25" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H25" s="10">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>15</v>
@@ -17568,10 +17646,10 @@
         <v>30926</v>
       </c>
       <c r="G26" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H26" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>15</v>
@@ -17600,10 +17678,10 @@
         <v>25447</v>
       </c>
       <c r="G27" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H27" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>15</v>
@@ -17632,10 +17710,10 @@
         <v>25447</v>
       </c>
       <c r="G28" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H28" s="10">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>15</v>
@@ -17664,10 +17742,10 @@
         <v>30926</v>
       </c>
       <c r="G29" s="9">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H29" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>15</v>
@@ -17720,7 +17798,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S275"/>
+  <dimension ref="A1:S276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -18149,58 +18227,58 @@
         <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="C8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="D8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="E8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="F8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="G8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="H8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="I8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="J8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="K8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="L8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="M8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="N8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="O8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="P8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="Q8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="R8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="S8" s="6">
-        <v>44440</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -18208,58 +18286,58 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C9" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E9" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F9" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G9" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H9" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I9" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K9" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L9" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N9" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O9" s="1">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R9" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S9" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -28550,40 +28628,40 @@
         <v>44440</v>
       </c>
       <c r="B275" s="8">
-        <v>37333</v>
+        <v>37605</v>
       </c>
       <c r="C275" s="8">
-        <v>20502</v>
+        <v>21663</v>
       </c>
       <c r="D275" s="8">
-        <v>58086</v>
+        <v>59531</v>
       </c>
       <c r="E275" s="8">
-        <v>37682</v>
+        <v>37950</v>
       </c>
       <c r="F275" s="8">
-        <v>21124</v>
+        <v>22302</v>
       </c>
       <c r="G275" s="8">
-        <v>59057</v>
+        <v>60515</v>
       </c>
       <c r="H275" s="8">
-        <v>35521</v>
+        <v>35780</v>
       </c>
       <c r="I275" s="8">
-        <v>20041</v>
+        <v>21175</v>
       </c>
       <c r="J275" s="8">
-        <v>55812</v>
+        <v>57218</v>
       </c>
       <c r="K275" s="8">
-        <v>35827</v>
+        <v>36082</v>
       </c>
       <c r="L275" s="8">
-        <v>20539</v>
+        <v>21687</v>
       </c>
       <c r="M275" s="8">
-        <v>56617</v>
+        <v>58033</v>
       </c>
       <c r="N275" s="8"/>
       <c r="O275" s="8"/>
@@ -28591,6 +28669,53 @@
       <c r="Q275" s="8"/>
       <c r="R275" s="8"/>
       <c r="S275" s="8"/>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A276" s="9">
+        <v>44531</v>
+      </c>
+      <c r="B276" s="8">
+        <v>32869</v>
+      </c>
+      <c r="C276" s="8">
+        <v>17787</v>
+      </c>
+      <c r="D276" s="8">
+        <v>50757</v>
+      </c>
+      <c r="E276" s="8">
+        <v>33191</v>
+      </c>
+      <c r="F276" s="8">
+        <v>18383</v>
+      </c>
+      <c r="G276" s="8">
+        <v>51679</v>
+      </c>
+      <c r="H276" s="8">
+        <v>32085</v>
+      </c>
+      <c r="I276" s="8">
+        <v>17070</v>
+      </c>
+      <c r="J276" s="8">
+        <v>49257</v>
+      </c>
+      <c r="K276" s="8">
+        <v>32424</v>
+      </c>
+      <c r="L276" s="8">
+        <v>17671</v>
+      </c>
+      <c r="M276" s="8">
+        <v>50200</v>
+      </c>
+      <c r="N276" s="8"/>
+      <c r="O276" s="8"/>
+      <c r="P276" s="8"/>
+      <c r="Q276" s="8"/>
+      <c r="R276" s="8"/>
+      <c r="S276" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
